--- a/Tabele.xlsx
+++ b/Tabele.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t xml:space="preserve">Lekarze</t>
   </si>
@@ -46,6 +46,15 @@
     <t xml:space="preserve">Kowalski</t>
   </si>
   <si>
+    <t xml:space="preserve">Kardiologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wizyty</t>
   </si>
   <si>
@@ -64,7 +73,49 @@
     <t xml:space="preserve">Oddziały</t>
   </si>
   <si>
+    <t xml:space="preserve">Obserwacje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Specjalizacja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokój</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alergologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesja_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonifacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konserwator powierzchni płaskich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sss</t>
   </si>
 </sst>
 </file>
@@ -74,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +151,16 @@
       <family val="0"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,7 +176,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
@@ -147,7 +206,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.7999"/>
-        <bgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
@@ -171,13 +230,49 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.7999"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFED7D31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC9BA4"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,12 +310,68 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,15 +379,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,43 +415,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,7 +457,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -328,18 +471,18 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFD0CECE"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
@@ -533,27 +676,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
@@ -574,7 +719,7 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
       <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
@@ -599,40 +744,52 @@
         <v>234234</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -643,7 +800,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="11"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -654,7 +811,7 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -665,7 +822,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -676,45 +833,45 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,37 +930,196 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="G26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="G27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
+      <c r="A29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="F37" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="27" t="n">
+        <v>12345678901</v>
+      </c>
+      <c r="D39" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
